--- a/final output/Mean Changes.xlsx
+++ b/final output/Mean Changes.xlsx
@@ -4,25 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="12375" windowHeight="2340"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="23895" windowHeight="9990"/>
   </bookViews>
   <sheets>
-    <sheet name="Изменение Темпа" sheetId="1" r:id="rId1"/>
+    <sheet name="Mean Changes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
-    <t>Chokurdakh</t>
+    <t>Station</t>
   </si>
   <si>
-    <t>Khatanga</t>
-  </si>
-  <si>
-    <t>Inuvik</t>
+    <t>Season</t>
   </si>
   <si>
     <t>Temperature</t>
@@ -32,6 +29,30 @@
   </si>
   <si>
     <t>VPD</t>
+  </si>
+  <si>
+    <t>Chokurdakh</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>autumn</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>Khatanga</t>
+  </si>
+  <si>
+    <t>Inuvik</t>
   </si>
 </sst>
 </file>
@@ -493,25 +514,31 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -519,26 +546,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -547,39 +574,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -587,7 +614,6 @@
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -629,84 +655,103 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Акцент1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Акцент1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Акцент2" xfId="23" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Акцент3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Акцент4" xfId="31" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Акцент5" xfId="35" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Акцент6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ввод " xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Вывод" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Вычисление" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Заголовок 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Заголовок 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Заголовок 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Заголовок 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Итог" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Контрольная ячейка" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Нейтральный" xfId="9" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Пояснение" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
-    <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Хороший" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Процентный" xfId="42" builtinId="5"/>
+    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -998,71 +1043,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8">
         <v>0.08</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="9">
+        <v>-0.16</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="D3" s="12">
+        <v>-0.04</v>
+      </c>
+      <c r="E3" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="D4" s="12">
+        <v>-0.23</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6"/>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="D5" s="12">
+        <v>-0.08</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="D6" s="15">
+        <v>-0.24</v>
+      </c>
+      <c r="E6" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8">
         <v>0.09</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D7" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6"/>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D10" s="12">
+        <v>-0.05</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="D11" s="15">
+        <v>-0.02</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="11">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5">
-        <v>-0.16</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="D12" s="12">
+        <v>-0.15</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6"/>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="D13" s="12">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6"/>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="11">
         <v>0.06</v>
       </c>
-      <c r="D3" s="7">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0.06</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.11</v>
+      <c r="D14" s="12">
+        <v>-0.09</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="D15" s="12">
+        <v>-0.17</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="D16" s="15">
+        <v>-0.25</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1.1000000000000001</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
